--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitPjt\ExcelAndJSON\test1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>__default__</t>
   </si>
@@ -84,6 +79,15 @@
     <t>Length</t>
   </si>
   <si>
+    <t>AddStrLv</t>
+  </si>
+  <si>
+    <t>AddDexLv</t>
+  </si>
+  <si>
+    <t>AddMntLv</t>
+  </si>
+  <si>
     <t>SteadyEx</t>
   </si>
   <si>
@@ -93,21 +97,39 @@
     <t>StaminaCost</t>
   </si>
   <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>dag</t>
+    <t>GreatSword</t>
+  </si>
+  <si>
+    <t>Resources/Models/GreatSword</t>
   </si>
   <si>
     <t>dg</t>
   </si>
   <si>
-    <t>Club</t>
+    <t>Resources/Animators/GreatSword</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Resources/Models/Magic</t>
   </si>
   <si>
     <t>cb</t>
   </si>
   <si>
+    <t>Resources/Animators/Magic</t>
+  </si>
+  <si>
+    <t>DualBlades</t>
+  </si>
+  <si>
+    <t>Resources/Models/DualBlades</t>
+  </si>
+  <si>
+    <t>Resources/Animators/DualBlades</t>
+  </si>
+  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -141,6 +163,9 @@
     <t>长度（攻击范围？）</t>
   </si>
   <si>
+    <t>力量修正等级</t>
+  </si>
+  <si>
     <t>出手韧性</t>
   </si>
   <si>
@@ -148,71 +173,385 @@
   </si>
   <si>
     <t>体力消耗（重、特由轻决定，统一公式</t>
-  </si>
-  <si>
-    <t>力量修正等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddStrLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddDexLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddMntLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,9 +559,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -246,17 +827,61 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,25 +1139,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="3"/>
+    <col min="1" max="1" width="20.6636363636364" style="3" customWidth="1"/>
+    <col min="2" max="4" width="20.6636363636364" style="3"/>
+    <col min="5" max="5" width="32" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6636363636364" style="3"/>
+    <col min="7" max="7" width="32" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -570,7 +1199,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" ht="14" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -626,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -664,25 +1293,25 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -690,19 +1319,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
@@ -738,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -746,19 +1375,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -794,7 +1423,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" spans="1:18">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+      <c r="R6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -812,54 +1497,54 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="2" customFormat="1" spans="2:8">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -869,7 +1554,7 @@
       <c r="H9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>__default__</t>
   </si>
@@ -88,10 +88,13 @@
     <t>AddMntLv</t>
   </si>
   <si>
-    <t>SteadyEx</t>
-  </si>
-  <si>
-    <t>SteadyDmg</t>
+    <t>MpAtkRecovery</t>
+  </si>
+  <si>
+    <t>ImpactRatio</t>
+  </si>
+  <si>
+    <t>ImpactDamage</t>
   </si>
   <si>
     <t>StaminaCost</t>
@@ -181,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -213,23 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +238,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -251,34 +284,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,73 +359,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -366,25 +369,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +477,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,145 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,36 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,11 +605,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,139 +674,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,7 +898,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1145,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
@@ -1161,7 +1164,7 @@
     <col min="8" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1198,8 +1201,9 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14" spans="1:18">
+    <row r="2" s="2" customFormat="1" ht="14" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1246,16 +1250,19 @@
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:18">
+    <row r="3" s="2" customFormat="1" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1310,8 +1317,11 @@
       <c r="R3" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1319,19 +1329,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
@@ -1358,16 +1368,19 @@
         <v>2</v>
       </c>
       <c r="P4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="S4" s="3">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1375,19 +1388,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -1414,16 +1427,19 @@
         <v>2</v>
       </c>
       <c r="P5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="3">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="3">
         <v>10</v>
       </c>
+      <c r="S5" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:18">
+    <row r="6" s="3" customFormat="1" spans="1:19">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1431,19 +1447,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -1470,16 +1486,19 @@
         <v>2</v>
       </c>
       <c r="P6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R6" s="3">
+        <v>40</v>
+      </c>
+      <c r="S6" s="3">
         <v>10</v>
       </c>
-      <c r="Q6" s="3">
-        <v>10</v>
-      </c>
-      <c r="R6" s="3">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:16">
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1496,45 +1515,43 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -1542,6 +1559,9 @@
       </c>
       <c r="R8" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:8">

--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>__default__</t>
   </si>
@@ -40,6 +40,9 @@
     <t>s</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Animator</t>
   </si>
   <si>
+    <t>Combos</t>
+  </si>
+  <si>
     <t>RequireLevel</t>
   </si>
   <si>
@@ -112,25 +118,28 @@
     <t>Resources/Animators/GreatSword</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Resources/Models/Magic</t>
+    <t>1:"2011-2012-2013",2:"20211+20212-20221+20222",3:"20311+20312+20313"</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Resources/Models/Axe</t>
   </si>
   <si>
     <t>cb</t>
   </si>
   <si>
-    <t>Resources/Animators/Magic</t>
-  </si>
-  <si>
-    <t>DualBlades</t>
-  </si>
-  <si>
-    <t>Resources/Models/DualBlades</t>
-  </si>
-  <si>
-    <t>Resources/Animators/DualBlades</t>
+    <t>Resources/Animators/Axe</t>
+  </si>
+  <si>
+    <t>ShieldSword</t>
+  </si>
+  <si>
+    <t>Resources/Models/ShieldSword</t>
+  </si>
+  <si>
+    <t>Resources/Animators/ShieldSword</t>
   </si>
   <si>
     <t>KEY</t>
@@ -184,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,6 +226,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -224,7 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,22 +279,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,8 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,57 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,6 +337,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,13 +378,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,157 +528,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +575,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,58 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,143 +683,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,10 +832,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
@@ -1161,49 +1176,51 @@
     <col min="5" max="5" width="32" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.6636363636364" style="3"/>
     <col min="7" max="7" width="32" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="20.6636363636364" style="3"/>
+    <col min="8" max="8" width="27.0909090909091" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:17">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="4"/>
+      <c r="I1" s="5">
         <v>1</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="5">
         <v>10</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="5">
         <v>10</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14" spans="1:19">
+    <row r="2" s="2" customFormat="1" ht="14" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1235,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
@@ -1250,78 +1267,84 @@
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1329,22 +1352,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="3">
         <v>10</v>
@@ -1353,34 +1376,37 @@
         <v>10</v>
       </c>
       <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>100</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
       </c>
       <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3">
         <v>5</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>20</v>
       </c>
       <c r="S4" s="3">
         <v>20</v>
       </c>
+      <c r="T4" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1388,22 +1414,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10</v>
       </c>
       <c r="I5" s="3">
         <v>10</v>
@@ -1412,34 +1438,37 @@
         <v>10</v>
       </c>
       <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>150</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>5</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>0.5</v>
-      </c>
-      <c r="R5" s="3">
-        <v>10</v>
       </c>
       <c r="S5" s="3">
         <v>10</v>
       </c>
+      <c r="T5" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:19">
+    <row r="6" s="3" customFormat="1" spans="1:20">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1447,22 +1476,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I6" s="3">
         <v>10</v>
@@ -1471,107 +1500,112 @@
         <v>10</v>
       </c>
       <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>100</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
       </c>
       <c r="O6" s="3">
         <v>2</v>
       </c>
       <c r="P6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3">
         <v>5</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>0.8</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>40</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:17">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:18">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    <row r="9" s="2" customFormat="1" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>__default__</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Animator</t>
   </si>
   <si>
-    <t>Combos</t>
+    <t>Actions</t>
   </si>
   <si>
     <t>RequireLevel</t>
@@ -118,73 +118,76 @@
     <t>Resources/Animators/GreatSword</t>
   </si>
   <si>
+    <t>1:1,2:2,3:3,4:4,5:5,6:6,7:7,8:8,9:9,10:10</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Resources/Models/Axe</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>Resources/Animators/Axe</t>
+  </si>
+  <si>
+    <t>ShieldSword</t>
+  </si>
+  <si>
+    <t>Resources/Models/ShieldSword</t>
+  </si>
+  <si>
+    <t>Resources/Animators/ShieldSword</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>缩略图（物品栏）</t>
+  </si>
+  <si>
+    <t>动画机（包含战技？不同角色步态相异，攻击相同？）</t>
+  </si>
+  <si>
+    <t>等级需求？</t>
+  </si>
+  <si>
+    <t>力量需求</t>
+  </si>
+  <si>
+    <t>敏捷需求</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>长度（攻击范围？）</t>
+  </si>
+  <si>
+    <t>力量修正等级</t>
+  </si>
+  <si>
+    <t>出手韧性</t>
+  </si>
+  <si>
+    <t>韧性削减</t>
+  </si>
+  <si>
+    <t>体力消耗（重、特由轻决定，统一公式</t>
+  </si>
+  <si>
     <t>1:"2011-2012-2013",2:"20211+20212-20221+20222",3:"20311+20312+20313"</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Resources/Models/Axe</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>Resources/Animators/Axe</t>
-  </si>
-  <si>
-    <t>ShieldSword</t>
-  </si>
-  <si>
-    <t>Resources/Models/ShieldSword</t>
-  </si>
-  <si>
-    <t>Resources/Animators/ShieldSword</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>资源路径</t>
-  </si>
-  <si>
-    <t>缩略图（物品栏）</t>
-  </si>
-  <si>
-    <t>动画机（包含战技？不同角色步态相异，攻击相同？）</t>
-  </si>
-  <si>
-    <t>等级需求？</t>
-  </si>
-  <si>
-    <t>力量需求</t>
-  </si>
-  <si>
-    <t>敏捷需求</t>
-  </si>
-  <si>
-    <t>重量</t>
-  </si>
-  <si>
-    <t>长度（攻击范围？）</t>
-  </si>
-  <si>
-    <t>力量修正等级</t>
-  </si>
-  <si>
-    <t>出手韧性</t>
-  </si>
-  <si>
-    <t>韧性削减</t>
-  </si>
-  <si>
-    <t>体力消耗（重、特由轻决定，统一公式</t>
   </si>
 </sst>
 </file>
@@ -192,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -225,34 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -261,39 +236,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,29 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -338,14 +326,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -353,17 +365,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,25 +381,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,157 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,28 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,16 +623,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -663,9 +649,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,143 +686,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +842,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
@@ -1176,7 +1176,7 @@
     <col min="5" max="5" width="32" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.6636363636364" style="3"/>
     <col min="7" max="7" width="32" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.0909090909091" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.5454545454545" style="4" customWidth="1"/>
     <col min="9" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
@@ -1366,7 +1366,7 @@
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="3">
@@ -1607,6 +1607,11 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>__default__</t>
   </si>
@@ -145,10 +145,13 @@
     <t>KEY</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>类别轻、中、重</t>
   </si>
   <si>
     <t>资源路径</t>
@@ -196,9 +199,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,6 +231,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -237,74 +262,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +284,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -326,47 +336,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,15 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,11 +643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,12 +664,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,130 +698,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
@@ -1355,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -1417,7 +1420,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -1479,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>40</v>
@@ -1563,38 +1566,41 @@
       <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:9">
@@ -1609,7 +1615,7 @@
     </row>
     <row r="15" spans="8:8">
       <c r="H15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Weapons.xlsx
+++ b/test1/Weapons.xlsx
@@ -198,9 +198,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -232,6 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -239,15 +246,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +275,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -269,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,48 +330,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,40 +360,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,45 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,16 +597,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,12 +642,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,130 +698,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
